--- a/data/Path 2000/Scenario Map.xlsx
+++ b/data/Path 2000/Scenario Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deakin365-my.sharepoint.com/personal/j_callesalazar_deakin_edu_au/Documents/calle test/Disun Applications/Gurobi Applications/data/Path 2000/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_7EE2D314206357C63C561A8C6379FD6B31AE6B40" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C63AA5C8-E776-4FCA-8119-57EAAFB33B3C}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_7EE2D314206357C63C561A8C6379FD6B31AE6B40" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99EF91F6-B5CA-4157-BFFE-76020C372988}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,18 @@
     <sheet name="Generate Tables" sheetId="1" r:id="rId1"/>
     <sheet name="Run Experiments" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -9306,7 +9317,7 @@
   <dimension ref="A1:Q151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L2"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9315,6 +9326,8 @@
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
